--- a/vendor_selection_edr_101_v1.0.xlsx
+++ b/vendor_selection_edr_101_v1.0.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdilucchio\github\edr101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6653EA41-83D1-4B91-8646-BBF0F2BAF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F792F617-0AEA-4B86-A56F-C136E0A155D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38055" yWindow="3465" windowWidth="9600" windowHeight="4905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="checklist" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Prevention</t>
   </si>
   <si>
-    <t>Prevent from malware and zero day threat</t>
-  </si>
-  <si>
     <t>Is the product signature-based or does it use ML?</t>
-  </si>
-  <si>
-    <t>• If the product uses ML, does the end to end have to be connected to the cloud to use it?</t>
-  </si>
-  <si>
-    <t>• Which of the prevention features requires a cloud connection?</t>
-  </si>
-  <si>
-    <t>• In case malware is not blocked, what other prevention mechanisms does the product provide?</t>
   </si>
   <si>
     <t>Questions</t>
@@ -247,6 +234,21 @@
   </si>
   <si>
     <t>For agent-based data storage, check what will happen if an endpoint is unavailable, or has been compromised by your attacker (how the agent itself, the PC, and data are protected).</t>
+  </si>
+  <si>
+    <t>Asset and Vulnerability Management</t>
+  </si>
+  <si>
+    <t>How can technology help me manage assets?</t>
+  </si>
+  <si>
+    <t>Is the solution able to generate a list of vulnerable hosts?</t>
+  </si>
+  <si>
+    <t>Is the information up-to-date, or is a scan required to get access to the latest status?</t>
+  </si>
+  <si>
+    <t>Is the solution capable of lists all applications being used on an endpoint?</t>
   </si>
 </sst>
 </file>
@@ -571,9 +573,6 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -632,92 +631,95 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,609 +1024,602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E90BE-21A1-4B6E-A847-224B64BBA714}">
+  <dimension ref="A1:BH55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.36328125" customWidth="1"/>
-    <col min="3" max="3" width="66.6328125" customWidth="1"/>
+    <col min="1" max="3" width="32.36328125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="103.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="92.36328125" style="10" customWidth="1"/>
+    <col min="6" max="60" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:60" s="5" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A3" s="52"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A4" s="52"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:60" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A8" s="52"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A9" s="52"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A10" s="52"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A11" s="52"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A12" s="52"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A13" s="52"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52"/>
+      <c r="B14" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A15" s="52"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A16" s="52"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="52"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="52"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="52"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="52"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="52"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="52"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="52"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="52"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="52"/>
+      <c r="B25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="52"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="52"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="52"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="52"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="52"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="52"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="52"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="52"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="52"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="52"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="52"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="52"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="52"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="52"/>
+      <c r="B39" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="52"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="52"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="52"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="52"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="52"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="45"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="44"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="44"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="44"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8E90BE-21A1-4B6E-A847-224B64BBA714}">
-  <dimension ref="A1:BH51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="3" width="32.36328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="103.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="92.36328125" style="11" customWidth="1"/>
-    <col min="6" max="60" width="8.7265625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:60" s="6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:60" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
-      <c r="B35" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="43"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="49"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="44"/>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="49"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="A6:A40"/>
+  <mergeCells count="17">
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A6:A44"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D32:D37"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="B25:B38"/>
     <mergeCell ref="C14:C18"/>
-    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C21:C24"/>
   </mergeCells>
-  <conditionalFormatting sqref="D14:E21 C19:C20 B21:D21 E22:E25 D2:E8">
+  <conditionalFormatting sqref="C19:C21 B25:D25 E26:E29 D2:E8 D14:E25">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($G2=0,$G2&lt;&gt;"")</formula>
     </cfRule>
